--- a/doc/concept_drift_results/results.xlsx
+++ b/doc/concept_drift_results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Gradual drift</t>
   </si>
@@ -46,6 +46,30 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>current_seq=7990, last_window_error_count=0, error_count_since_last_detection=29, total_error_count=737</t>
+  </si>
+  <si>
+    <t>current_seq=7990, last_window_avg_error=0.0, avg_error_since_last_detection=0.020863309352517987, total_avg_error=0.09224030037546933</t>
+  </si>
+  <si>
+    <t>detection_points_seq=[2360, 2480, 2600, 4360, 4500, 6320, 6460, 6600]</t>
+  </si>
+  <si>
+    <t>baseline=no_adaptation, total_error_count=2202, total_avg_error=0.2755944931163955</t>
+  </si>
+  <si>
+    <t>baseline=all_data, total_error_count=809, total_avg_error=0.10125156445556946</t>
+  </si>
+  <si>
+    <t>baseline=latest_window, total_error_count=389, total_avg_error=0.048685857321652065</t>
   </si>
 </sst>
 </file>
@@ -53,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -72,12 +96,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -101,7 +131,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:F25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,317 +454,633 @@
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>8.5400000000000004E-2</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <v>0.50480000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>5.8500000000000003E-2</v>
-      </c>
-      <c r="D4">
-        <v>2.47E-2</v>
-      </c>
-      <c r="E4">
-        <v>8.1600000000000006E-2</v>
-      </c>
-      <c r="F4">
-        <v>0.50309999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>6.6100000000000006E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.47E-2</v>
+      </c>
+      <c r="E6">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.50309999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>6.6100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
-        <f>AVERAGE(C3:C6)</f>
+      <c r="C9" s="4">
+        <f>AVERAGE(C5:C8)</f>
         <v>5.7050000000000003E-2</v>
       </c>
-      <c r="D7" s="4">
-        <f t="shared" ref="D7:E7" si="0">AVERAGE(D3:D6)</f>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:E9" si="0">AVERAGE(D5:D8)</f>
         <v>2.76E-2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="F7" s="4">
-        <f>AVERAGE(F3:F6)</f>
+      <c r="F9" s="4">
+        <f>AVERAGE(F5:F8)</f>
         <v>0.50395000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>0.2571</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>0.1134</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>0.28770000000000001</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>0.56720000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>0.25850000000000001</v>
-      </c>
-      <c r="D10">
-        <v>9.8699999999999996E-2</v>
-      </c>
-      <c r="E10">
-        <v>0.26179999999999998</v>
-      </c>
-      <c r="F10">
-        <v>0.56720000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>0.29870000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="D12">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.26179999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.56720000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>0.29870000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>0.21959999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4">
-        <f>AVERAGE(C9:C12)</f>
+      <c r="C15" s="4">
+        <f>AVERAGE(C11:C14)</f>
         <v>0.25847500000000001</v>
       </c>
-      <c r="D13" s="4">
-        <f t="shared" ref="D13:F13" si="1">AVERAGE(D9:D12)</f>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:F15" si="1">AVERAGE(D11:D14)</f>
         <v>0.10605000000000001</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E15" s="4">
         <f t="shared" si="1"/>
         <v>0.27474999999999999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F15" s="4">
         <f t="shared" si="1"/>
         <v>0.56720000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>6.6100000000000006E-2</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>4.19E-2</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>6.8500000000000005E-2</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <v>0.43769999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>6.2300000000000001E-2</v>
-      </c>
-      <c r="D16">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="E16">
-        <v>7.1499999999999994E-2</v>
-      </c>
-      <c r="F16">
-        <v>0.43769999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>7.1499999999999994E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="D18">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="E18">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.43769999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>7.1499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
         <v>4</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>6.7100000000000007E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="4">
-        <f>AVERAGE(C15:C18)</f>
+      <c r="C21" s="4">
+        <f>AVERAGE(C17:C20)</f>
         <v>6.6750000000000004E-2</v>
       </c>
-      <c r="D19" s="4">
-        <f t="shared" ref="D19:F19" si="2">AVERAGE(D15:D18)</f>
+      <c r="D21" s="4">
+        <f t="shared" ref="D21:F21" si="2">AVERAGE(D17:D20)</f>
         <v>4.1499999999999995E-2</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E21" s="4">
         <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F21" s="4">
         <f t="shared" si="2"/>
         <v>0.43769999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B23" s="1">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>2.24E-2</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>0.4385</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="D22">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="E22">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="F22">
-        <v>0.4385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="D24">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="E24">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.4385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
         <v>4</v>
       </c>
-      <c r="C24">
+      <c r="C26">
         <v>2.5250000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="4">
-        <f>AVERAGE(C21:C24)</f>
+      <c r="C27" s="4">
+        <f>AVERAGE(C23:C26)</f>
         <v>2.68375E-2</v>
       </c>
-      <c r="D25" s="4">
-        <f t="shared" ref="D25:F25" si="3">AVERAGE(D21:D24)</f>
+      <c r="D27" s="4">
+        <f t="shared" ref="D27:F27" si="3">AVERAGE(D23:D26)</f>
         <v>2.1400000000000002E-2</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E27" s="4">
         <f t="shared" si="3"/>
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F27" s="4">
         <f t="shared" si="3"/>
         <v>0.4385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="D34">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="E34">
+        <v>6.93E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.39550000000000002</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="D35">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.39479999999999998</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4">
+        <f>AVERAGE(C34:C37)</f>
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" ref="D38:E38" si="4">AVERAGE(D34:D37)</f>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="4"/>
+        <v>6.93E-2</v>
+      </c>
+      <c r="F38" s="4">
+        <f>AVERAGE(F34:F37)</f>
+        <v>0.39515</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0.217</v>
+      </c>
+      <c r="D40">
+        <v>0.1668</v>
+      </c>
+      <c r="E40">
+        <v>0.1608</v>
+      </c>
+      <c r="F40">
+        <v>0.41830000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>0.23430000000000001</v>
+      </c>
+      <c r="D41">
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="F41">
+        <v>0.41830000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="4">
+        <f>AVERAGE(C40:C43)</f>
+        <v>0.22565000000000002</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" ref="D44:F44" si="5">AVERAGE(D40:D43)</f>
+        <v>0.14600000000000002</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="5"/>
+        <v>0.1608</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="5"/>
+        <v>0.41830000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D46">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="E46">
+        <v>9.6100000000000005E-2</v>
+      </c>
+      <c r="F46">
+        <v>0.34410000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="D47">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="F47">
+        <v>0.34410000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="4">
+        <f>AVERAGE(C46:C49)</f>
+        <v>8.9400000000000007E-2</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" ref="D50:F50" si="6">AVERAGE(D46:D49)</f>
+        <v>5.4900000000000004E-2</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="6"/>
+        <v>9.6100000000000005E-2</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="6"/>
+        <v>0.34410000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>4.07E-2</v>
+      </c>
+      <c r="D52">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E52">
+        <v>4.99E-2</v>
+      </c>
+      <c r="F52">
+        <v>0.3372</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>4.53E-2</v>
+      </c>
+      <c r="D53">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="F53">
+        <v>0.3372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="4">
+        <f>AVERAGE(C52:C55)</f>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" ref="D56:F56" si="7">AVERAGE(D52:D55)</f>
+        <v>3.0949999999999998E-2</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="7"/>
+        <v>4.99E-2</v>
+      </c>
+      <c r="F56" s="4">
+        <f t="shared" si="7"/>
+        <v>0.3372</v>
       </c>
     </row>
   </sheetData>
